--- a/data/SDG1.xlsx
+++ b/data/SDG1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bajk/Documents/GitHub/zhaw-sustainability/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B194E1D9-0CDE-F849-BF1D-373342C47D88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E2CE0A03-53A5-D743-A092-931762AB5CB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13420" yWindow="-27900" windowWidth="58680" windowHeight="25700" activeTab="3" xr2:uid="{2B27B2E0-ACC6-DB43-9BE6-064065136AA0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1454" uniqueCount="519">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1556" uniqueCount="546">
   <si>
     <t>Stichwort</t>
   </si>
@@ -1597,6 +1597,87 @@
   </si>
   <si>
     <t>it_lem</t>
+  </si>
+  <si>
+    <t>anti-povertà</t>
+  </si>
+  <si>
+    <t>aporofobia</t>
+  </si>
+  <si>
+    <t>bisogni primari</t>
+  </si>
+  <si>
+    <t>Cooperazione per lo sviluppo</t>
+  </si>
+  <si>
+    <t>riduzione del rischio di catastrofi</t>
+  </si>
+  <si>
+    <t>privato del diritto di voto</t>
+  </si>
+  <si>
+    <t>immersioni nel cassonetto</t>
+  </si>
+  <si>
+    <t>l'inclusione finanziaria</t>
+  </si>
+  <si>
+    <t>parità di reddito</t>
+  </si>
+  <si>
+    <t>disparità di reddito</t>
+  </si>
+  <si>
+    <t>reddito basso</t>
+  </si>
+  <si>
+    <t>reddito inferiore</t>
+  </si>
+  <si>
+    <t>deprivazione materiale</t>
+  </si>
+  <si>
+    <t>nuovi mercati di affari</t>
+  </si>
+  <si>
+    <t>abitanti del marciapiede</t>
+  </si>
+  <si>
+    <t>i più poveri</t>
+  </si>
+  <si>
+    <t>a favore dei poveri</t>
+  </si>
+  <si>
+    <t>crescita a favore dei poveri</t>
+  </si>
+  <si>
+    <t>cambiamento ridistributivo</t>
+  </si>
+  <si>
+    <t>signore dei bassifondi</t>
+  </si>
+  <si>
+    <t>integrazione sociale</t>
+  </si>
+  <si>
+    <t>stato sociale</t>
+  </si>
+  <si>
+    <t>prestiti di solidarietà</t>
+  </si>
+  <si>
+    <t>diritti di proprietà sulla terra</t>
+  </si>
+  <si>
+    <t>prezzi differenziati</t>
+  </si>
+  <si>
+    <t>banca del villaggio</t>
+  </si>
+  <si>
+    <t>lavorare povero</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1680,7 +1761,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4848,15 +4928,15 @@
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.83203125" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4886,8 +4966,8 @@
       <c r="C2" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>151</v>
+      <c r="D2" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -4901,8 +4981,8 @@
       <c r="C3" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>155</v>
+      <c r="D3" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4916,8 +4996,8 @@
       <c r="C4" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>160</v>
+      <c r="D4" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -4931,8 +5011,8 @@
       <c r="C5" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>163</v>
+      <c r="D5" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -4946,8 +5026,8 @@
       <c r="C6" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>167</v>
+      <c r="D6" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -4961,8 +5041,8 @@
       <c r="C7" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>170</v>
+      <c r="D7" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -4976,8 +5056,8 @@
       <c r="C8" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>175</v>
+      <c r="D8" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -4991,8 +5071,8 @@
       <c r="C9" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>179</v>
+      <c r="D9" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -5006,8 +5086,8 @@
       <c r="C10" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>182</v>
+      <c r="D10" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -5021,7 +5101,7 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="4"/>
@@ -5036,8 +5116,8 @@
       <c r="C12" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>185</v>
+      <c r="D12" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -5051,8 +5131,8 @@
       <c r="C13" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>189</v>
+      <c r="D13" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -5066,7 +5146,7 @@
       <c r="C14" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E14" s="4"/>
@@ -5081,8 +5161,8 @@
       <c r="C15" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>197</v>
+      <c r="D15" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -5096,8 +5176,8 @@
       <c r="C16" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>201</v>
+      <c r="D16" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -5111,8 +5191,8 @@
       <c r="C17" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>205</v>
+      <c r="D17" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -5126,8 +5206,8 @@
       <c r="C18" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>208</v>
+      <c r="D18" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -5141,8 +5221,8 @@
       <c r="C19" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>211</v>
+      <c r="D19" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -5156,8 +5236,8 @@
       <c r="C20" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>214</v>
+      <c r="D20" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -5171,8 +5251,8 @@
       <c r="C21" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>218</v>
+      <c r="D21" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -5186,8 +5266,8 @@
       <c r="C22" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>222</v>
+      <c r="D22" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -5201,8 +5281,8 @@
       <c r="C23" t="s">
         <v>229</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>226</v>
+      <c r="D23" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="E23" s="4"/>
     </row>
@@ -5216,8 +5296,8 @@
       <c r="C24" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>230</v>
+      <c r="D24" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="E24" s="4"/>
     </row>
@@ -5231,8 +5311,8 @@
       <c r="C25" t="s">
         <v>237</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>234</v>
+      <c r="D25" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="E25" s="4"/>
     </row>
@@ -5246,8 +5326,8 @@
       <c r="C26" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>238</v>
+      <c r="D26" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -5261,7 +5341,7 @@
       <c r="C27" t="s">
         <v>245</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>243</v>
       </c>
       <c r="E27" s="4"/>
@@ -5276,8 +5356,8 @@
       <c r="C28" t="s">
         <v>249</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>246</v>
+      <c r="D28" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="E28" s="4"/>
     </row>
@@ -5291,8 +5371,8 @@
       <c r="C29" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>250</v>
+      <c r="D29" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="E29" s="4"/>
     </row>
@@ -5306,8 +5386,8 @@
       <c r="C30" t="s">
         <v>255</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>252</v>
+      <c r="D30" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="E30" s="4"/>
     </row>
@@ -5321,8 +5401,8 @@
       <c r="C31" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>256</v>
+      <c r="D31" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E31" s="4"/>
     </row>
@@ -5336,8 +5416,8 @@
       <c r="C32" t="s">
         <v>263</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>260</v>
+      <c r="D32" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E32" s="4"/>
     </row>
@@ -5351,8 +5431,8 @@
       <c r="C33" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>264</v>
+      <c r="D33" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="E33" s="4"/>
     </row>
@@ -5366,8 +5446,8 @@
       <c r="C34" t="s">
         <v>271</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>268</v>
+      <c r="D34" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -5381,8 +5461,8 @@
       <c r="C35" t="s">
         <v>275</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>272</v>
+      <c r="D35" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="E35" s="4"/>
     </row>
@@ -5396,8 +5476,8 @@
       <c r="C36" t="s">
         <v>277</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>276</v>
+      <c r="D36" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="E36" s="4"/>
     </row>
@@ -5411,8 +5491,8 @@
       <c r="C37" t="s">
         <v>280</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>279</v>
+      <c r="D37" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="E37" s="4"/>
     </row>
@@ -5426,8 +5506,8 @@
       <c r="C38" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>282</v>
+      <c r="D38" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="E38" s="4"/>
     </row>
@@ -5441,8 +5521,8 @@
       <c r="C39" t="s">
         <v>289</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>286</v>
+      <c r="D39" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="E39" s="4"/>
     </row>
@@ -5456,8 +5536,8 @@
       <c r="C40" t="s">
         <v>293</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>290</v>
+      <c r="D40" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="E40" s="4"/>
     </row>
@@ -5471,8 +5551,8 @@
       <c r="C41" t="s">
         <v>296</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>294</v>
+      <c r="D41" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="E41" s="4"/>
     </row>
@@ -5486,8 +5566,8 @@
       <c r="C42" t="s">
         <v>300</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>297</v>
+      <c r="D42" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="E42" s="4"/>
     </row>
@@ -5501,7 +5581,7 @@
       <c r="C43" t="s">
         <v>302</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>301</v>
       </c>
       <c r="E43" s="4"/>
@@ -5516,8 +5596,8 @@
       <c r="C44" t="s">
         <v>304</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>303</v>
+      <c r="D44" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="E44" s="4"/>
     </row>
@@ -5531,8 +5611,8 @@
       <c r="C45" t="s">
         <v>309</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>306</v>
+      <c r="D45" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="E45" s="4"/>
     </row>
@@ -5546,8 +5626,8 @@
       <c r="C46" t="s">
         <v>311</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>310</v>
+      <c r="D46" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E46" s="4"/>
     </row>
@@ -5561,7 +5641,7 @@
       <c r="C47" t="s">
         <v>313</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="4" t="s">
         <v>313</v>
       </c>
       <c r="E47" s="4"/>
@@ -5576,8 +5656,8 @@
       <c r="C48" t="s">
         <v>316</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>315</v>
+      <c r="D48" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="E48" s="4"/>
     </row>
@@ -5591,7 +5671,7 @@
       <c r="C49" t="s">
         <v>317</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="4" t="s">
         <v>317</v>
       </c>
       <c r="E49" s="4"/>
@@ -5606,8 +5686,8 @@
       <c r="C50" t="s">
         <v>319</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>318</v>
+      <c r="D50" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="E50" s="4"/>
     </row>
@@ -5621,8 +5701,8 @@
       <c r="C51" t="s">
         <v>321</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>321</v>
+      <c r="D51" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="E51" s="4"/>
     </row>
@@ -5636,8 +5716,8 @@
       <c r="C52" t="s">
         <v>325</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>324</v>
+      <c r="D52" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="E52" s="4"/>
     </row>
@@ -5651,7 +5731,7 @@
       <c r="C53" t="s">
         <v>327</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="4" t="s">
         <v>327</v>
       </c>
       <c r="E53" s="4"/>
@@ -5666,8 +5746,8 @@
       <c r="C54" t="s">
         <v>332</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>329</v>
+      <c r="D54" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="E54" s="4"/>
     </row>
@@ -5681,7 +5761,7 @@
       <c r="C55" t="s">
         <v>333</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="4" t="s">
         <v>333</v>
       </c>
       <c r="E55" s="4"/>
@@ -5696,8 +5776,8 @@
       <c r="C56" t="s">
         <v>338</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>335</v>
+      <c r="D56" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="E56" s="4"/>
     </row>
@@ -5711,7 +5791,7 @@
       <c r="C57" t="s">
         <v>341</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="4" t="s">
         <v>339</v>
       </c>
       <c r="E57" s="4"/>
@@ -5726,8 +5806,8 @@
       <c r="C58" t="s">
         <v>343</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>342</v>
+      <c r="D58" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="E58" s="4"/>
     </row>
@@ -5741,8 +5821,8 @@
       <c r="C59" t="s">
         <v>348</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>345</v>
+      <c r="D59" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="E59" s="4"/>
     </row>
@@ -5756,8 +5836,8 @@
       <c r="C60" t="s">
         <v>351</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>349</v>
+      <c r="D60" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="E60" s="4"/>
     </row>
@@ -5771,8 +5851,8 @@
       <c r="C61" t="s">
         <v>353</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>352</v>
+      <c r="D61" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="E61" s="4"/>
     </row>
@@ -5786,8 +5866,8 @@
       <c r="C62" t="s">
         <v>343</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>355</v>
+      <c r="D62" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="E62" s="4"/>
     </row>
@@ -5801,8 +5881,8 @@
       <c r="C63" t="s">
         <v>361</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>358</v>
+      <c r="D63" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="E63" s="4"/>
     </row>
@@ -5816,8 +5896,8 @@
       <c r="C64" t="s">
         <v>364</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>194</v>
+      <c r="D64" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="E64" s="4"/>
     </row>
@@ -5831,8 +5911,8 @@
       <c r="C65" t="s">
         <v>369</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>365</v>
+      <c r="D65" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="E65" s="4"/>
     </row>
@@ -5846,8 +5926,8 @@
       <c r="C66" t="s">
         <v>373</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>370</v>
+      <c r="D66" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="E66" s="4"/>
     </row>
@@ -5861,8 +5941,8 @@
       <c r="C67" t="s">
         <v>377</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>374</v>
+      <c r="D67" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="E67" s="4"/>
     </row>
@@ -5876,8 +5956,8 @@
       <c r="C68" t="s">
         <v>379</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>378</v>
+      <c r="D68" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="E68" s="4"/>
     </row>
@@ -5891,8 +5971,8 @@
       <c r="C69" t="s">
         <v>385</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>381</v>
+      <c r="D69" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="E69" s="4"/>
     </row>
@@ -5906,8 +5986,8 @@
       <c r="C70" t="s">
         <v>389</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>386</v>
+      <c r="D70" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="E70" s="4"/>
     </row>
@@ -5921,7 +6001,7 @@
       <c r="C71" t="s">
         <v>390</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="4" t="s">
         <v>390</v>
       </c>
       <c r="E71" s="4"/>
@@ -5936,8 +6016,8 @@
       <c r="C72" t="s">
         <v>393</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>392</v>
+      <c r="D72" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="E72" s="4"/>
     </row>
@@ -5951,8 +6031,8 @@
       <c r="C73" t="s">
         <v>398</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>395</v>
+      <c r="D73" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="E73" s="4"/>
     </row>
@@ -5966,8 +6046,8 @@
       <c r="C74" t="s">
         <v>403</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>399</v>
+      <c r="D74" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="E74" s="4"/>
     </row>
@@ -5981,8 +6061,8 @@
       <c r="C75" t="s">
         <v>406</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>404</v>
+      <c r="D75" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="E75" s="4"/>
     </row>
@@ -5996,8 +6076,8 @@
       <c r="C76" t="s">
         <v>409</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>408</v>
+      <c r="D76" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="E76" s="4"/>
     </row>
@@ -6011,8 +6091,8 @@
       <c r="C77" t="s">
         <v>412</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>411</v>
+      <c r="D77" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="E77" s="4"/>
     </row>
@@ -6026,8 +6106,8 @@
       <c r="C78" t="s">
         <v>416</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>414</v>
+      <c r="D78" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="E78" s="4"/>
     </row>
@@ -6041,8 +6121,8 @@
       <c r="C79" t="s">
         <v>418</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>417</v>
+      <c r="D79" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="E79" s="4"/>
     </row>
@@ -6056,7 +6136,7 @@
       <c r="C80" t="s">
         <v>418</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="4" t="s">
         <v>419</v>
       </c>
       <c r="E80" s="4"/>
@@ -6071,8 +6151,8 @@
       <c r="C81" t="s">
         <v>423</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>420</v>
+      <c r="D81" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="E81" s="4"/>
     </row>
@@ -6086,8 +6166,8 @@
       <c r="C82" t="s">
         <v>425</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>424</v>
+      <c r="D82" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="E82" s="4"/>
     </row>
@@ -6101,8 +6181,8 @@
       <c r="C83" t="s">
         <v>430</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>427</v>
+      <c r="D83" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="E83" s="4"/>
     </row>
@@ -6116,8 +6196,8 @@
       <c r="C84" t="s">
         <v>435</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>431</v>
+      <c r="D84" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="E84" s="4"/>
     </row>
@@ -6131,8 +6211,8 @@
       <c r="C85" t="s">
         <v>439</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>436</v>
+      <c r="D85" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="E85" s="4"/>
     </row>
@@ -6146,8 +6226,8 @@
       <c r="C86" t="s">
         <v>443</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>440</v>
+      <c r="D86" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="E86" s="4"/>
     </row>
@@ -6161,8 +6241,8 @@
       <c r="C87" t="s">
         <v>448</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>444</v>
+      <c r="D87" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="E87" s="4"/>
     </row>
@@ -6176,8 +6256,8 @@
       <c r="C88" t="s">
         <v>451</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>449</v>
+      <c r="D88" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="E88" s="4"/>
     </row>
@@ -6191,8 +6271,8 @@
       <c r="C89" t="s">
         <v>455</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>452</v>
+      <c r="D89" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="E89" s="4"/>
     </row>
@@ -6206,8 +6286,8 @@
       <c r="C90" t="s">
         <v>457</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>456</v>
+      <c r="D90" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="E90" s="4"/>
     </row>
@@ -6221,8 +6301,8 @@
       <c r="C91" t="s">
         <v>462</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>459</v>
+      <c r="D91" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E91" s="4"/>
     </row>
@@ -6236,8 +6316,8 @@
       <c r="C92" t="s">
         <v>466</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>463</v>
+      <c r="D92" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="E92" s="4"/>
     </row>
@@ -6251,8 +6331,8 @@
       <c r="C93" t="s">
         <v>470</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>467</v>
+      <c r="D93" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="E93" s="4"/>
     </row>
@@ -6266,8 +6346,8 @@
       <c r="C94" t="s">
         <v>471</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>134</v>
+      <c r="D94" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="E94" s="4"/>
     </row>
@@ -6281,8 +6361,8 @@
       <c r="C95" t="s">
         <v>472</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>136</v>
+      <c r="D95" s="4" t="s">
+        <v>472</v>
       </c>
       <c r="E95" s="4"/>
     </row>
@@ -6296,8 +6376,8 @@
       <c r="C96" t="s">
         <v>474</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>473</v>
+      <c r="D96" s="4" t="s">
+        <v>474</v>
       </c>
       <c r="E96" s="4"/>
     </row>
@@ -6311,8 +6391,8 @@
       <c r="C97" t="s">
         <v>477</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>476</v>
+      <c r="D97" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="E97" s="4"/>
     </row>
@@ -6326,8 +6406,8 @@
       <c r="C98" t="s">
         <v>480</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>479</v>
+      <c r="D98" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="E98" s="4"/>
     </row>
@@ -6341,8 +6421,8 @@
       <c r="C99" t="s">
         <v>485</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>482</v>
+      <c r="D99" s="4" t="s">
+        <v>483</v>
       </c>
       <c r="E99" s="4"/>
     </row>
@@ -6356,8 +6436,8 @@
       <c r="C100" t="s">
         <v>489</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>486</v>
+      <c r="D100" s="4" t="s">
+        <v>487</v>
       </c>
       <c r="E100" s="4"/>
     </row>
@@ -6371,8 +6451,8 @@
       <c r="C101" t="s">
         <v>491</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>490</v>
+      <c r="D101" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="E101" s="4"/>
     </row>
@@ -6386,8 +6466,8 @@
       <c r="C102" t="s">
         <v>496</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>493</v>
+      <c r="D102" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="E102" s="4"/>
     </row>
@@ -6401,8 +6481,8 @@
       <c r="C103" t="s">
         <v>498</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>497</v>
+      <c r="D103" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="E103" s="4"/>
     </row>
@@ -6416,14 +6496,14 @@
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.83203125" customWidth="1"/>
     <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6451,8 +6531,11 @@
       <c r="B2" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>151</v>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -6463,8 +6546,11 @@
       <c r="B3" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>155</v>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -6475,8 +6561,11 @@
       <c r="B4" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>160</v>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -6487,8 +6576,11 @@
       <c r="B5" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>163</v>
+      <c r="C5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -6499,8 +6591,11 @@
       <c r="B6" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>167</v>
+      <c r="C6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -6511,8 +6606,11 @@
       <c r="B7" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>170</v>
+      <c r="C7" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -6523,8 +6621,11 @@
       <c r="B8" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>175</v>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -6535,8 +6636,11 @@
       <c r="B9" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>179</v>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -6547,8 +6651,11 @@
       <c r="B10" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>182</v>
+      <c r="C10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -6559,7 +6666,10 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="4"/>
@@ -6571,8 +6681,11 @@
       <c r="B12" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>185</v>
+      <c r="C12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -6583,8 +6696,11 @@
       <c r="B13" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>189</v>
+      <c r="C13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -6595,8 +6711,11 @@
       <c r="B14" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>193</v>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -6607,8 +6726,11 @@
       <c r="B15" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>197</v>
+      <c r="C15" t="s">
+        <v>524</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -6619,8 +6741,11 @@
       <c r="B16" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>201</v>
+      <c r="C16" t="s">
+        <v>525</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -6631,8 +6756,11 @@
       <c r="B17" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>205</v>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -6643,8 +6771,11 @@
       <c r="B18" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>208</v>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -6655,8 +6786,11 @@
       <c r="B19" t="s">
         <v>213</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>211</v>
+      <c r="C19" t="s">
+        <v>526</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -6667,8 +6801,11 @@
       <c r="B20" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>214</v>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -6679,8 +6816,11 @@
       <c r="B21" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>218</v>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -6691,8 +6831,11 @@
       <c r="B22" t="s">
         <v>224</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>222</v>
+      <c r="C22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -6703,8 +6846,11 @@
       <c r="B23" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>226</v>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="E23" s="4"/>
     </row>
@@ -6715,8 +6861,11 @@
       <c r="B24" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>230</v>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="E24" s="4"/>
     </row>
@@ -6727,8 +6876,11 @@
       <c r="B25" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>234</v>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="E25" s="4"/>
     </row>
@@ -6739,8 +6891,11 @@
       <c r="B26" t="s">
         <v>241</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>238</v>
+      <c r="C26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -6751,8 +6906,11 @@
       <c r="B27" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" t="s">
         <v>243</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="E27" s="4"/>
     </row>
@@ -6763,8 +6921,11 @@
       <c r="B28" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>246</v>
+      <c r="C28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="E28" s="4"/>
     </row>
@@ -6775,8 +6936,11 @@
       <c r="B29" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>250</v>
+      <c r="C29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="E29" s="4"/>
     </row>
@@ -6787,8 +6951,11 @@
       <c r="B30" t="s">
         <v>254</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>252</v>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="E30" s="4"/>
     </row>
@@ -6799,8 +6966,11 @@
       <c r="B31" t="s">
         <v>258</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>256</v>
+      <c r="C31" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E31" s="4"/>
     </row>
@@ -6811,8 +6981,11 @@
       <c r="B32" t="s">
         <v>262</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>260</v>
+      <c r="C32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="E32" s="4"/>
     </row>
@@ -6823,8 +6996,11 @@
       <c r="B33" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>264</v>
+      <c r="C33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="E33" s="4"/>
     </row>
@@ -6835,8 +7011,11 @@
       <c r="B34" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>268</v>
+      <c r="C34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -6847,8 +7026,11 @@
       <c r="B35" t="s">
         <v>274</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>272</v>
+      <c r="C35" t="s">
+        <v>527</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="E35" s="4"/>
     </row>
@@ -6859,8 +7041,11 @@
       <c r="B36" t="s">
         <v>278</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>276</v>
+      <c r="C36" t="s">
+        <v>528</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="E36" s="4"/>
     </row>
@@ -6871,8 +7056,11 @@
       <c r="B37" t="s">
         <v>281</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>279</v>
+      <c r="C37" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E37" s="4"/>
     </row>
@@ -6883,8 +7071,11 @@
       <c r="B38" t="s">
         <v>284</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>282</v>
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="E38" s="4"/>
     </row>
@@ -6895,8 +7086,11 @@
       <c r="B39" t="s">
         <v>288</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>286</v>
+      <c r="C39" t="s">
+        <v>529</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E39" s="4"/>
     </row>
@@ -6907,8 +7101,11 @@
       <c r="B40" t="s">
         <v>292</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>290</v>
+      <c r="C40" t="s">
+        <v>292</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="E40" s="4"/>
     </row>
@@ -6919,8 +7116,11 @@
       <c r="B41" t="s">
         <v>292</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>294</v>
+      <c r="C41" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="E41" s="4"/>
     </row>
@@ -6931,8 +7131,11 @@
       <c r="B42" t="s">
         <v>299</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>297</v>
+      <c r="C42" t="s">
+        <v>530</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="E42" s="4"/>
     </row>
@@ -6943,7 +7146,10 @@
       <c r="B43" t="s">
         <v>301</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" t="s">
+        <v>301</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>301</v>
       </c>
       <c r="E43" s="4"/>
@@ -6955,8 +7161,11 @@
       <c r="B44" t="s">
         <v>305</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>303</v>
+      <c r="C44" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="E44" s="4"/>
     </row>
@@ -6967,8 +7176,11 @@
       <c r="B45" t="s">
         <v>308</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>306</v>
+      <c r="C45" t="s">
+        <v>531</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="E45" s="4"/>
     </row>
@@ -6979,8 +7191,11 @@
       <c r="B46" t="s">
         <v>312</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>310</v>
+      <c r="C46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="E46" s="4"/>
     </row>
@@ -6991,8 +7206,11 @@
       <c r="B47" t="s">
         <v>314</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>313</v>
+      <c r="C47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="E47" s="4"/>
     </row>
@@ -7003,8 +7221,11 @@
       <c r="B48" t="s">
         <v>312</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>315</v>
+      <c r="C48" t="s">
+        <v>312</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="E48" s="4"/>
     </row>
@@ -7015,8 +7236,11 @@
       <c r="B49" t="s">
         <v>314</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>317</v>
+      <c r="C49" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="E49" s="4"/>
     </row>
@@ -7027,8 +7251,11 @@
       <c r="B50" t="s">
         <v>320</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>318</v>
+      <c r="C50" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="E50" s="4"/>
     </row>
@@ -7039,8 +7266,11 @@
       <c r="B51" t="s">
         <v>323</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="C51" t="s">
         <v>321</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="E51" s="4"/>
     </row>
@@ -7051,8 +7281,11 @@
       <c r="B52" t="s">
         <v>326</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>324</v>
+      <c r="C52" t="s">
+        <v>326</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="E52" s="4"/>
     </row>
@@ -7063,8 +7296,11 @@
       <c r="B53" t="s">
         <v>328</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>327</v>
+      <c r="C53" t="s">
+        <v>328</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="E53" s="4"/>
     </row>
@@ -7075,8 +7311,11 @@
       <c r="B54" t="s">
         <v>331</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>329</v>
+      <c r="C54" t="s">
+        <v>532</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="E54" s="4"/>
     </row>
@@ -7087,8 +7326,11 @@
       <c r="B55" t="s">
         <v>334</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>333</v>
+      <c r="C55" t="s">
+        <v>334</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="E55" s="4"/>
     </row>
@@ -7099,8 +7341,11 @@
       <c r="B56" t="s">
         <v>337</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>335</v>
+      <c r="C56" t="s">
+        <v>533</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="E56" s="4"/>
     </row>
@@ -7111,8 +7356,11 @@
       <c r="B57" t="s">
         <v>340</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>339</v>
+      <c r="C57" t="s">
+        <v>340</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="E57" s="4"/>
     </row>
@@ -7123,8 +7371,11 @@
       <c r="B58" t="s">
         <v>344</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>342</v>
+      <c r="C58" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="E58" s="4"/>
     </row>
@@ -7135,8 +7386,11 @@
       <c r="B59" t="s">
         <v>347</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>345</v>
+      <c r="C59" t="s">
+        <v>347</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="E59" s="4"/>
     </row>
@@ -7147,8 +7401,11 @@
       <c r="B60" t="s">
         <v>347</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>349</v>
+      <c r="C60" t="s">
+        <v>347</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="E60" s="4"/>
     </row>
@@ -7159,8 +7416,11 @@
       <c r="B61" t="s">
         <v>354</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>352</v>
+      <c r="C61" t="s">
+        <v>354</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="E61" s="4"/>
     </row>
@@ -7171,8 +7431,11 @@
       <c r="B62" t="s">
         <v>357</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>355</v>
+      <c r="C62" t="s">
+        <v>357</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="E62" s="4"/>
     </row>
@@ -7183,8 +7446,11 @@
       <c r="B63" t="s">
         <v>360</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>358</v>
+      <c r="C63" t="s">
+        <v>534</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="E63" s="4"/>
     </row>
@@ -7195,8 +7461,11 @@
       <c r="B64" t="s">
         <v>363</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>194</v>
+      <c r="C64" t="s">
+        <v>363</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="E64" s="4"/>
     </row>
@@ -7207,8 +7476,11 @@
       <c r="B65" t="s">
         <v>368</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>365</v>
+      <c r="C65" t="s">
+        <v>535</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E65" s="4"/>
     </row>
@@ -7219,8 +7491,11 @@
       <c r="B66" t="s">
         <v>372</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>370</v>
+      <c r="C66" t="s">
+        <v>372</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="E66" s="4"/>
     </row>
@@ -7231,8 +7506,11 @@
       <c r="B67" t="s">
         <v>376</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>374</v>
+      <c r="C67" t="s">
+        <v>536</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="E67" s="4"/>
     </row>
@@ -7243,8 +7521,11 @@
       <c r="B68" t="s">
         <v>380</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>378</v>
+      <c r="C68" t="s">
+        <v>380</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="E68" s="4"/>
     </row>
@@ -7255,8 +7536,11 @@
       <c r="B69" t="s">
         <v>384</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>381</v>
+      <c r="C69" t="s">
+        <v>384</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="E69" s="4"/>
     </row>
@@ -7267,8 +7551,11 @@
       <c r="B70" t="s">
         <v>388</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>386</v>
+      <c r="C70" t="s">
+        <v>388</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="E70" s="4"/>
     </row>
@@ -7279,8 +7566,11 @@
       <c r="B71" t="s">
         <v>391</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>390</v>
+      <c r="C71" t="s">
+        <v>391</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="E71" s="4"/>
     </row>
@@ -7291,8 +7581,11 @@
       <c r="B72" t="s">
         <v>394</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>392</v>
+      <c r="C72" t="s">
+        <v>537</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="E72" s="4"/>
     </row>
@@ -7303,8 +7596,11 @@
       <c r="B73" t="s">
         <v>397</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>395</v>
+      <c r="C73" t="s">
+        <v>397</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="E73" s="4"/>
     </row>
@@ -7315,8 +7611,11 @@
       <c r="B74" t="s">
         <v>402</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>399</v>
+      <c r="C74" t="s">
+        <v>402</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="E74" s="4"/>
     </row>
@@ -7327,8 +7626,11 @@
       <c r="B75" t="s">
         <v>407</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>404</v>
+      <c r="C75" t="s">
+        <v>407</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="E75" s="4"/>
     </row>
@@ -7339,8 +7641,11 @@
       <c r="B76" t="s">
         <v>410</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>408</v>
+      <c r="C76" t="s">
+        <v>410</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="E76" s="4"/>
     </row>
@@ -7351,8 +7656,11 @@
       <c r="B77" t="s">
         <v>413</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>411</v>
+      <c r="C77" t="s">
+        <v>413</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="E77" s="4"/>
     </row>
@@ -7363,8 +7671,11 @@
       <c r="B78" t="s">
         <v>413</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="C78" t="s">
         <v>414</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="E78" s="4"/>
     </row>
@@ -7375,8 +7686,11 @@
       <c r="B79" t="s">
         <v>413</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>417</v>
+      <c r="C79" t="s">
+        <v>413</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="E79" s="4"/>
     </row>
@@ -7387,7 +7701,10 @@
       <c r="B80" t="s">
         <v>419</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="C80" t="s">
+        <v>538</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>419</v>
       </c>
       <c r="E80" s="4"/>
@@ -7399,8 +7716,11 @@
       <c r="B81" t="s">
         <v>422</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>420</v>
+      <c r="C81" t="s">
+        <v>422</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="E81" s="4"/>
     </row>
@@ -7411,8 +7731,11 @@
       <c r="B82" t="s">
         <v>426</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>424</v>
+      <c r="C82" t="s">
+        <v>539</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="E82" s="4"/>
     </row>
@@ -7423,8 +7746,11 @@
       <c r="B83" t="s">
         <v>429</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>427</v>
+      <c r="C83" t="s">
+        <v>429</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="E83" s="4"/>
     </row>
@@ -7435,8 +7761,11 @@
       <c r="B84" t="s">
         <v>434</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>431</v>
+      <c r="C84" t="s">
+        <v>434</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="E84" s="4"/>
     </row>
@@ -7447,8 +7776,11 @@
       <c r="B85" t="s">
         <v>438</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>436</v>
+      <c r="C85" t="s">
+        <v>438</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="E85" s="4"/>
     </row>
@@ -7459,8 +7791,11 @@
       <c r="B86" t="s">
         <v>442</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>440</v>
+      <c r="C86" t="s">
+        <v>442</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="E86" s="4"/>
     </row>
@@ -7471,8 +7806,11 @@
       <c r="B87" t="s">
         <v>447</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>444</v>
+      <c r="C87" t="s">
+        <v>447</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="E87" s="4"/>
     </row>
@@ -7483,8 +7821,11 @@
       <c r="B88" t="s">
         <v>422</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>449</v>
+      <c r="C88" t="s">
+        <v>540</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="E88" s="4"/>
     </row>
@@ -7495,8 +7836,11 @@
       <c r="B89" t="s">
         <v>454</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>452</v>
+      <c r="C89" t="s">
+        <v>541</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>454</v>
       </c>
       <c r="E89" s="4"/>
     </row>
@@ -7507,8 +7851,11 @@
       <c r="B90" t="s">
         <v>458</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>456</v>
+      <c r="C90" t="s">
+        <v>458</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>458</v>
       </c>
       <c r="E90" s="4"/>
     </row>
@@ -7519,8 +7866,11 @@
       <c r="B91" t="s">
         <v>461</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>459</v>
+      <c r="C91" t="s">
+        <v>461</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="E91" s="4"/>
     </row>
@@ -7531,8 +7881,11 @@
       <c r="B92" t="s">
         <v>465</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>463</v>
+      <c r="C92" t="s">
+        <v>542</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="E92" s="4"/>
     </row>
@@ -7543,8 +7896,11 @@
       <c r="B93" t="s">
         <v>469</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>467</v>
+      <c r="C93" t="s">
+        <v>543</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="E93" s="4"/>
     </row>
@@ -7555,7 +7911,10 @@
       <c r="B94" t="s">
         <v>134</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="C94" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E94" s="4"/>
@@ -7567,7 +7926,10 @@
       <c r="B95" t="s">
         <v>136</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="C95" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E95" s="4"/>
@@ -7579,8 +7941,11 @@
       <c r="B96" t="s">
         <v>475</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>473</v>
+      <c r="C96" t="s">
+        <v>475</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="E96" s="4"/>
     </row>
@@ -7591,8 +7956,11 @@
       <c r="B97" t="s">
         <v>478</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>476</v>
+      <c r="C97" t="s">
+        <v>544</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="E97" s="4"/>
     </row>
@@ -7603,8 +7971,11 @@
       <c r="B98" t="s">
         <v>481</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>479</v>
+      <c r="C98" t="s">
+        <v>481</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>481</v>
       </c>
       <c r="E98" s="4"/>
     </row>
@@ -7615,8 +7986,11 @@
       <c r="B99" t="s">
         <v>484</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>482</v>
+      <c r="C99" t="s">
+        <v>484</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="E99" s="4"/>
     </row>
@@ -7627,8 +8001,11 @@
       <c r="B100" t="s">
         <v>488</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>486</v>
+      <c r="C100" t="s">
+        <v>488</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="E100" s="4"/>
     </row>
@@ -7639,8 +8016,11 @@
       <c r="B101" t="s">
         <v>492</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>490</v>
+      <c r="C101" t="s">
+        <v>492</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="E101" s="4"/>
     </row>
@@ -7651,8 +8031,11 @@
       <c r="B102" t="s">
         <v>495</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>493</v>
+      <c r="C102" t="s">
+        <v>495</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="E102" s="4"/>
     </row>
@@ -7663,8 +8046,11 @@
       <c r="B103" t="s">
         <v>499</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>497</v>
+      <c r="C103" t="s">
+        <v>545</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="E103" s="4"/>
     </row>
